--- a/RadiationInfo.xlsx
+++ b/RadiationInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berglund.anders/Documents/DATA/TCGA_PANCANCER/Results/RadiationMethylation/Annotation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berglund.anders/Documents/GitHub/DysregMethRadioSens_Article/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32600EC0-A186-5843-898C-EE8CCA70C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF562D0-4E1A-C74E-9ADA-B1C9B3D74A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="6520" windowWidth="48420" windowHeight="20380" activeTab="8" xr2:uid="{B62FABFB-1765-1B47-AB73-9FD1D4BD09CA}"/>
+    <workbookView xWindow="9820" yWindow="6520" windowWidth="48420" windowHeight="20380" xr2:uid="{B62FABFB-1765-1B47-AB73-9FD1D4BD09CA}"/>
   </bookViews>
   <sheets>
     <sheet name="SKCM" sheetId="1" r:id="rId1"/>
@@ -16791,9 +16791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E610DC-4DB8-104E-86E0-081446EBFE77}">
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -82389,7 +82387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53AC8E5-CA6C-FA4D-9A05-581428926062}">
   <dimension ref="A1:N311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+    <sheetView topLeftCell="A279" workbookViewId="0">
       <selection activeCell="A308" sqref="A308:XFD308"/>
     </sheetView>
   </sheetViews>
